--- a/Student_info.xlsx
+++ b/Student_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaditya\Python_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F12DA79-EFB7-402D-8FCB-30F00D7542F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E2511-E4F3-456A-9A3B-F4DD49B390FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0D7F987B-51FE-437C-BBCC-A6033F1A3CC5}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Student_info.xlsx
+++ b/Student_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaditya\Python_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E2511-E4F3-456A-9A3B-F4DD49B390FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CB086-CF60-4F33-AF55-9600FF5AB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0D7F987B-51FE-437C-BBCC-A6033F1A3CC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{0D7F987B-51FE-437C-BBCC-A6033F1A3CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -568,7 +568,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Student_info.xlsx
+++ b/Student_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaditya\Python_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CB086-CF60-4F33-AF55-9600FF5AB772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45711956-0578-4463-A6E8-8411420CAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{0D7F987B-51FE-437C-BBCC-A6033F1A3CC5}"/>
+    <workbookView xWindow="108" yWindow="60" windowWidth="23040" windowHeight="12960" xr2:uid="{0D7F987B-51FE-437C-BBCC-A6033F1A3CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
